--- a/data/CM-AM AVENIR ACTIONS INTERNATIONAL.xlsx
+++ b/data/CM-AM AVENIR ACTIONS INTERNATIONAL.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="210">
   <si>
     <t>Historique Cours</t>
   </si>
@@ -20,7 +20,7 @@
     <t>Date d'export</t>
   </si>
   <si>
-    <t>29/04/2025</t>
+    <t>31/10/2025</t>
   </si>
   <si>
     <t>Valeur :</t>
@@ -51,6 +51,24 @@
   </si>
   <si>
     <t>Volume</t>
+  </si>
+  <si>
+    <t>30/09/2025</t>
+  </si>
+  <si>
+    <t>29/08/2025</t>
+  </si>
+  <si>
+    <t>31/07/2025</t>
+  </si>
+  <si>
+    <t>30/06/2025</t>
+  </si>
+  <si>
+    <t>30/05/2025</t>
+  </si>
+  <si>
+    <t>30/04/2025</t>
   </si>
   <si>
     <t>31/03/2025</t>
@@ -880,8 +898,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TableData_0_0" displayName="TableData_0_0" ref="A7:D196" headerRowCount="1">
-  <autoFilter ref="A7:D196"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TableData_0_0" displayName="TableData_0_0" ref="A7:D202" headerRowCount="1">
+  <autoFilter ref="A7:D202"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Date de cotation"/>
     <tableColumn id="2" name="Dernier cours en EUR"/>
@@ -894,7 +912,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F197"/>
+  <dimension ref="A1:F203"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" zoomScale="80"/>
   </sheetViews>
@@ -1011,13 +1029,13 @@
         <v>13</v>
       </c>
       <c r="B8" s="14">
-        <v>30.3803</v>
+        <v>34.3315</v>
       </c>
       <c r="C8" s="15">
-        <v>-9.09</v>
+        <v>3.11</v>
       </c>
       <c r="D8" s="16">
-        <v>1118692</v>
+        <v>1205993</v>
       </c>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
@@ -1027,13 +1045,13 @@
         <v>14</v>
       </c>
       <c r="B9" s="14">
-        <v>33.4192</v>
+        <v>33.2952</v>
       </c>
       <c r="C9" s="15">
-        <v>-1.48</v>
+        <v>-0.62</v>
       </c>
       <c r="D9" s="16">
-        <v>1138453</v>
+        <v>1209862</v>
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
@@ -1043,13 +1061,13 @@
         <v>15</v>
       </c>
       <c r="B10" s="14">
-        <v>33.9205</v>
+        <v>33.5025</v>
       </c>
       <c r="C10" s="15">
-        <v>3.87</v>
+        <v>4.22</v>
       </c>
       <c r="D10" s="16">
-        <v>1134396</v>
+        <v>1202154</v>
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
@@ -1059,13 +1077,13 @@
         <v>16</v>
       </c>
       <c r="B11" s="14">
-        <v>32.6583</v>
+        <v>32.1464</v>
       </c>
       <c r="C11" s="15">
-        <v>-0.18</v>
+        <v>1.28</v>
       </c>
       <c r="D11" s="16">
-        <v>1114046</v>
+        <v>1191967</v>
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
@@ -1075,13 +1093,13 @@
         <v>17</v>
       </c>
       <c r="B12" s="14">
-        <v>32.7181</v>
+        <v>31.7389</v>
       </c>
       <c r="C12" s="15">
-        <v>6.91</v>
+        <v>7.29</v>
       </c>
       <c r="D12" s="16">
-        <v>1084367</v>
+        <v>1165072</v>
       </c>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
@@ -1091,13 +1109,13 @@
         <v>18</v>
       </c>
       <c r="B13" s="14">
-        <v>30.603</v>
+        <v>29.5834</v>
       </c>
       <c r="C13" s="15">
-        <v>-0.15</v>
+        <v>-2.62</v>
       </c>
       <c r="D13" s="16">
-        <v>1073014</v>
+        <v>1118540</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
@@ -1107,13 +1125,13 @@
         <v>19</v>
       </c>
       <c r="B14" s="14">
-        <v>30.65</v>
+        <v>30.3803</v>
       </c>
       <c r="C14" s="15">
-        <v>0.63</v>
+        <v>-9.09</v>
       </c>
       <c r="D14" s="16">
-        <v>1072375</v>
+        <v>1118692</v>
       </c>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
@@ -1123,13 +1141,13 @@
         <v>20</v>
       </c>
       <c r="B15" s="14">
-        <v>30.4568</v>
+        <v>33.4192</v>
       </c>
       <c r="C15" s="15">
-        <v>0.73</v>
+        <v>-1.48</v>
       </c>
       <c r="D15" s="16">
-        <v>1060541</v>
+        <v>1138453</v>
       </c>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
@@ -1139,13 +1157,13 @@
         <v>21</v>
       </c>
       <c r="B16" s="14">
-        <v>30.2375</v>
+        <v>33.9205</v>
       </c>
       <c r="C16" s="15">
-        <v>-0.85</v>
+        <v>3.87</v>
       </c>
       <c r="D16" s="16">
-        <v>1057070</v>
+        <v>1134396</v>
       </c>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
@@ -1155,13 +1173,13 @@
         <v>22</v>
       </c>
       <c r="B17" s="14">
-        <v>30.4977</v>
+        <v>32.6583</v>
       </c>
       <c r="C17" s="15">
-        <v>3.98</v>
+        <v>-0.18</v>
       </c>
       <c r="D17" s="16">
-        <v>1045545</v>
+        <v>1114046</v>
       </c>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
@@ -1171,13 +1189,13 @@
         <v>23</v>
       </c>
       <c r="B18" s="14">
-        <v>29.3318</v>
+        <v>32.7181</v>
       </c>
       <c r="C18" s="15">
-        <v>3.07</v>
+        <v>6.91</v>
       </c>
       <c r="D18" s="16">
-        <v>984431</v>
+        <v>1084367</v>
       </c>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
@@ -1187,13 +1205,13 @@
         <v>24</v>
       </c>
       <c r="B19" s="14">
-        <v>28.4591</v>
+        <v>30.603</v>
       </c>
       <c r="C19" s="15">
-        <v>-2.8</v>
+        <v>-0.15</v>
       </c>
       <c r="D19" s="16">
-        <v>940713</v>
+        <v>1073014</v>
       </c>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
@@ -1203,13 +1221,13 @@
         <v>25</v>
       </c>
       <c r="B20" s="14">
-        <v>29.2797</v>
+        <v>30.65</v>
       </c>
       <c r="C20" s="15">
-        <v>3.07</v>
+        <v>0.63</v>
       </c>
       <c r="D20" s="16">
-        <v>944501</v>
+        <v>1072375</v>
       </c>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
@@ -1219,13 +1237,13 @@
         <v>26</v>
       </c>
       <c r="B21" s="14">
-        <v>28.4079</v>
+        <v>30.4568</v>
       </c>
       <c r="C21" s="15">
-        <v>4.94</v>
+        <v>0.73</v>
       </c>
       <c r="D21" s="16">
-        <v>936852</v>
+        <v>1060541</v>
       </c>
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
@@ -1235,13 +1253,13 @@
         <v>27</v>
       </c>
       <c r="B22" s="14">
-        <v>27.0696</v>
+        <v>30.2375</v>
       </c>
       <c r="C22" s="15">
-        <v>3.59</v>
+        <v>-0.85</v>
       </c>
       <c r="D22" s="16">
-        <v>931723</v>
+        <v>1057070</v>
       </c>
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
@@ -1251,13 +1269,13 @@
         <v>28</v>
       </c>
       <c r="B23" s="14">
-        <v>26.1308</v>
+        <v>30.4977</v>
       </c>
       <c r="C23" s="15">
-        <v>3.12</v>
+        <v>3.98</v>
       </c>
       <c r="D23" s="16">
-        <v>914566</v>
+        <v>1045545</v>
       </c>
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
@@ -1267,13 +1285,13 @@
         <v>29</v>
       </c>
       <c r="B24" s="14">
-        <v>25.3397</v>
+        <v>29.3318</v>
       </c>
       <c r="C24" s="15">
-        <v>6.87</v>
+        <v>3.07</v>
       </c>
       <c r="D24" s="16">
-        <v>917290</v>
+        <v>984431</v>
       </c>
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
@@ -1283,13 +1301,13 @@
         <v>30</v>
       </c>
       <c r="B25" s="14">
-        <v>23.7099</v>
+        <v>28.4591</v>
       </c>
       <c r="C25" s="15">
-        <v>-3.03</v>
+        <v>-2.8</v>
       </c>
       <c r="D25" s="16">
-        <v>904694</v>
+        <v>940713</v>
       </c>
       <c r="E25" s="12"/>
       <c r="F25" s="12"/>
@@ -1299,13 +1317,13 @@
         <v>31</v>
       </c>
       <c r="B26" s="14">
-        <v>24.4505</v>
+        <v>29.2797</v>
       </c>
       <c r="C26" s="15">
-        <v>-3.29</v>
+        <v>3.07</v>
       </c>
       <c r="D26" s="16">
-        <v>911434</v>
+        <v>944501</v>
       </c>
       <c r="E26" s="12"/>
       <c r="F26" s="12"/>
@@ -1315,13 +1333,13 @@
         <v>32</v>
       </c>
       <c r="B27" s="14">
-        <v>25.283</v>
+        <v>28.4079</v>
       </c>
       <c r="C27" s="15">
-        <v>-1.38</v>
+        <v>4.94</v>
       </c>
       <c r="D27" s="16">
-        <v>907933</v>
+        <v>936852</v>
       </c>
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
@@ -1331,13 +1349,13 @@
         <v>33</v>
       </c>
       <c r="B28" s="14">
-        <v>25.6367</v>
+        <v>27.0696</v>
       </c>
       <c r="C28" s="15">
-        <v>2.09</v>
+        <v>3.59</v>
       </c>
       <c r="D28" s="16">
-        <v>894754</v>
+        <v>931723</v>
       </c>
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
@@ -1347,13 +1365,13 @@
         <v>34</v>
       </c>
       <c r="B29" s="14">
-        <v>25.1131</v>
+        <v>26.1308</v>
       </c>
       <c r="C29" s="15">
-        <v>2.91</v>
+        <v>3.12</v>
       </c>
       <c r="D29" s="16">
-        <v>886284</v>
+        <v>914566</v>
       </c>
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
@@ -1363,13 +1381,13 @@
         <v>35</v>
       </c>
       <c r="B30" s="14">
-        <v>24.404</v>
+        <v>25.3397</v>
       </c>
       <c r="C30" s="15">
-        <v>2.76</v>
+        <v>6.87</v>
       </c>
       <c r="D30" s="16">
-        <v>847816</v>
+        <v>917290</v>
       </c>
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
@@ -1379,13 +1397,13 @@
         <v>36</v>
       </c>
       <c r="B31" s="14">
-        <v>23.7483</v>
+        <v>23.7099</v>
       </c>
       <c r="C31" s="15">
-        <v>-0.37</v>
+        <v>-3.03</v>
       </c>
       <c r="D31" s="16">
-        <v>795791</v>
+        <v>904694</v>
       </c>
       <c r="E31" s="12"/>
       <c r="F31" s="12"/>
@@ -1395,13 +1413,13 @@
         <v>37</v>
       </c>
       <c r="B32" s="14">
-        <v>23.8365</v>
+        <v>24.4505</v>
       </c>
       <c r="C32" s="15">
-        <v>1.03</v>
+        <v>-3.29</v>
       </c>
       <c r="D32" s="16">
-        <v>806632</v>
+        <v>911434</v>
       </c>
       <c r="E32" s="12"/>
       <c r="F32" s="12"/>
@@ -1411,13 +1429,13 @@
         <v>38</v>
       </c>
       <c r="B33" s="14">
-        <v>23.5927</v>
+        <v>25.283</v>
       </c>
       <c r="C33" s="15">
-        <v>0.19</v>
+        <v>-1.38</v>
       </c>
       <c r="D33" s="16">
-        <v>811182</v>
+        <v>907933</v>
       </c>
       <c r="E33" s="12"/>
       <c r="F33" s="12"/>
@@ -1427,13 +1445,13 @@
         <v>39</v>
       </c>
       <c r="B34" s="14">
-        <v>23.5483</v>
+        <v>25.6367</v>
       </c>
       <c r="C34" s="15">
-        <v>6.25</v>
+        <v>2.09</v>
       </c>
       <c r="D34" s="16">
-        <v>812053</v>
+        <v>894754</v>
       </c>
       <c r="E34" s="12"/>
       <c r="F34" s="12"/>
@@ -1443,13 +1461,13 @@
         <v>40</v>
       </c>
       <c r="B35" s="14">
-        <v>22.1628</v>
+        <v>25.1131</v>
       </c>
       <c r="C35" s="15">
-        <v>-4.5</v>
+        <v>2.91</v>
       </c>
       <c r="D35" s="16">
-        <v>805229</v>
+        <v>886284</v>
       </c>
       <c r="E35" s="12"/>
       <c r="F35" s="12"/>
@@ -1459,13 +1477,13 @@
         <v>41</v>
       </c>
       <c r="B36" s="14">
-        <v>23.2065</v>
+        <v>24.404</v>
       </c>
       <c r="C36" s="15">
-        <v>3.82</v>
+        <v>2.76</v>
       </c>
       <c r="D36" s="16">
-        <v>800893</v>
+        <v>847816</v>
       </c>
       <c r="E36" s="12"/>
       <c r="F36" s="12"/>
@@ -1475,13 +1493,13 @@
         <v>42</v>
       </c>
       <c r="B37" s="14">
-        <v>22.352</v>
+        <v>23.7483</v>
       </c>
       <c r="C37" s="15">
-        <v>3.78</v>
+        <v>-0.37</v>
       </c>
       <c r="D37" s="16">
-        <v>794266</v>
+        <v>795791</v>
       </c>
       <c r="E37" s="12"/>
       <c r="F37" s="12"/>
@@ -1491,13 +1509,13 @@
         <v>43</v>
       </c>
       <c r="B38" s="14">
-        <v>21.5373</v>
+        <v>23.8365</v>
       </c>
       <c r="C38" s="15">
-        <v>-6.49</v>
+        <v>1.03</v>
       </c>
       <c r="D38" s="16">
-        <v>852418</v>
+        <v>806632</v>
       </c>
       <c r="E38" s="12"/>
       <c r="F38" s="12"/>
@@ -1507,13 +1525,13 @@
         <v>44</v>
       </c>
       <c r="B39" s="14">
-        <v>23.0322</v>
+        <v>23.5927</v>
       </c>
       <c r="C39" s="15">
-        <v>-2.89</v>
+        <v>0.19</v>
       </c>
       <c r="D39" s="16">
-        <v>859904</v>
+        <v>811182</v>
       </c>
       <c r="E39" s="12"/>
       <c r="F39" s="12"/>
@@ -1523,13 +1541,13 @@
         <v>45</v>
       </c>
       <c r="B40" s="14">
-        <v>23.7167</v>
+        <v>23.5483</v>
       </c>
       <c r="C40" s="15">
-        <v>7.03</v>
+        <v>6.25</v>
       </c>
       <c r="D40" s="16">
-        <v>840972</v>
+        <v>812053</v>
       </c>
       <c r="E40" s="12"/>
       <c r="F40" s="12"/>
@@ -1539,13 +1557,13 @@
         <v>46</v>
       </c>
       <c r="B41" s="14">
-        <v>22.159</v>
+        <v>22.1628</v>
       </c>
       <c r="C41" s="15">
-        <v>-6.22</v>
+        <v>-4.5</v>
       </c>
       <c r="D41" s="16">
-        <v>829329</v>
+        <v>805229</v>
       </c>
       <c r="E41" s="12"/>
       <c r="F41" s="12"/>
@@ -1555,13 +1573,13 @@
         <v>47</v>
       </c>
       <c r="B42" s="14">
-        <v>23.6276</v>
+        <v>23.2065</v>
       </c>
       <c r="C42" s="15">
-        <v>-2.39</v>
+        <v>3.82</v>
       </c>
       <c r="D42" s="16">
-        <v>794026</v>
+        <v>800893</v>
       </c>
       <c r="E42" s="12"/>
       <c r="F42" s="12"/>
@@ -1571,13 +1589,13 @@
         <v>48</v>
       </c>
       <c r="B43" s="14">
-        <v>24.2054</v>
+        <v>22.352</v>
       </c>
       <c r="C43" s="15">
-        <v>-4.13</v>
+        <v>3.78</v>
       </c>
       <c r="D43" s="16">
-        <v>734829</v>
+        <v>794266</v>
       </c>
       <c r="E43" s="12"/>
       <c r="F43" s="12"/>
@@ -1587,13 +1605,13 @@
         <v>49</v>
       </c>
       <c r="B44" s="14">
-        <v>25.2481</v>
+        <v>21.5373</v>
       </c>
       <c r="C44" s="15">
-        <v>1.57</v>
+        <v>-6.49</v>
       </c>
       <c r="D44" s="16">
-        <v>720177</v>
+        <v>852418</v>
       </c>
       <c r="E44" s="12"/>
       <c r="F44" s="12"/>
@@ -1603,13 +1621,13 @@
         <v>50</v>
       </c>
       <c r="B45" s="14">
-        <v>24.8589</v>
+        <v>23.0322</v>
       </c>
       <c r="C45" s="15">
-        <v>-2.88</v>
+        <v>-2.89</v>
       </c>
       <c r="D45" s="16">
-        <v>724915</v>
+        <v>859904</v>
       </c>
       <c r="E45" s="12"/>
       <c r="F45" s="12"/>
@@ -1619,13 +1637,13 @@
         <v>51</v>
       </c>
       <c r="B46" s="14">
-        <v>25.5956</v>
+        <v>23.7167</v>
       </c>
       <c r="C46" s="15">
-        <v>-6.92</v>
+        <v>7.03</v>
       </c>
       <c r="D46" s="16">
-        <v>721502</v>
+        <v>840972</v>
       </c>
       <c r="E46" s="12"/>
       <c r="F46" s="12"/>
@@ -1635,13 +1653,13 @@
         <v>52</v>
       </c>
       <c r="B47" s="14">
-        <v>27.4977</v>
+        <v>22.159</v>
       </c>
       <c r="C47" s="15">
-        <v>2.59</v>
+        <v>-6.22</v>
       </c>
       <c r="D47" s="16">
-        <v>716010</v>
+        <v>829329</v>
       </c>
       <c r="E47" s="12"/>
       <c r="F47" s="12"/>
@@ -1651,13 +1669,13 @@
         <v>53</v>
       </c>
       <c r="B48" s="14">
-        <v>26.8027</v>
+        <v>23.6276</v>
       </c>
       <c r="C48" s="15">
-        <v>-1.82</v>
+        <v>-2.39</v>
       </c>
       <c r="D48" s="16">
-        <v>695886</v>
+        <v>794026</v>
       </c>
       <c r="E48" s="12"/>
       <c r="F48" s="12"/>
@@ -1667,13 +1685,13 @@
         <v>54</v>
       </c>
       <c r="B49" s="14">
-        <v>27.2996</v>
+        <v>24.2054</v>
       </c>
       <c r="C49" s="15">
-        <v>3.96</v>
+        <v>-4.13</v>
       </c>
       <c r="D49" s="16">
-        <v>723188</v>
+        <v>734829</v>
       </c>
       <c r="E49" s="12"/>
       <c r="F49" s="12"/>
@@ -1683,13 +1701,13 @@
         <v>55</v>
       </c>
       <c r="B50" s="14">
-        <v>26.2602</v>
+        <v>25.2481</v>
       </c>
       <c r="C50" s="15">
-        <v>-2.92</v>
+        <v>1.57</v>
       </c>
       <c r="D50" s="16">
-        <v>721591</v>
+        <v>720177</v>
       </c>
       <c r="E50" s="12"/>
       <c r="F50" s="12"/>
@@ -1699,13 +1717,13 @@
         <v>56</v>
       </c>
       <c r="B51" s="14">
-        <v>27.0489</v>
+        <v>24.8589</v>
       </c>
       <c r="C51" s="15">
-        <v>2.23</v>
+        <v>-2.88</v>
       </c>
       <c r="D51" s="16">
-        <v>716019</v>
+        <v>724915</v>
       </c>
       <c r="E51" s="12"/>
       <c r="F51" s="12"/>
@@ -1715,13 +1733,13 @@
         <v>57</v>
       </c>
       <c r="B52" s="14">
-        <v>26.4601</v>
+        <v>25.5956</v>
       </c>
       <c r="C52" s="15">
-        <v>0.93</v>
+        <v>-6.92</v>
       </c>
       <c r="D52" s="16">
-        <v>790383</v>
+        <v>721502</v>
       </c>
       <c r="E52" s="12"/>
       <c r="F52" s="12"/>
@@ -1731,13 +1749,13 @@
         <v>58</v>
       </c>
       <c r="B53" s="14">
-        <v>26.216</v>
+        <v>27.4977</v>
       </c>
       <c r="C53" s="15">
-        <v>2.94</v>
+        <v>2.59</v>
       </c>
       <c r="D53" s="16">
-        <v>776660</v>
+        <v>716010</v>
       </c>
       <c r="E53" s="12"/>
       <c r="F53" s="12"/>
@@ -1747,13 +1765,13 @@
         <v>59</v>
       </c>
       <c r="B54" s="14">
-        <v>25.4686</v>
+        <v>26.8027</v>
       </c>
       <c r="C54" s="15">
-        <v>0.81</v>
+        <v>-1.82</v>
       </c>
       <c r="D54" s="16">
-        <v>738134</v>
+        <v>695886</v>
       </c>
       <c r="E54" s="12"/>
       <c r="F54" s="12"/>
@@ -1763,13 +1781,13 @@
         <v>60</v>
       </c>
       <c r="B55" s="14">
-        <v>25.2641</v>
+        <v>27.2996</v>
       </c>
       <c r="C55" s="15">
-        <v>2.43</v>
+        <v>3.96</v>
       </c>
       <c r="D55" s="16">
-        <v>699961</v>
+        <v>723188</v>
       </c>
       <c r="E55" s="12"/>
       <c r="F55" s="12"/>
@@ -1779,13 +1797,13 @@
         <v>61</v>
       </c>
       <c r="B56" s="14">
-        <v>24.6637</v>
+        <v>26.2602</v>
       </c>
       <c r="C56" s="15">
-        <v>3.99</v>
+        <v>-2.92</v>
       </c>
       <c r="D56" s="16">
-        <v>693073</v>
+        <v>721591</v>
       </c>
       <c r="E56" s="12"/>
       <c r="F56" s="12"/>
@@ -1795,13 +1813,13 @@
         <v>62</v>
       </c>
       <c r="B57" s="14">
-        <v>23.7184</v>
+        <v>27.0489</v>
       </c>
       <c r="C57" s="15">
-        <v>1.95</v>
+        <v>2.23</v>
       </c>
       <c r="D57" s="16">
-        <v>683131</v>
+        <v>716019</v>
       </c>
       <c r="E57" s="12"/>
       <c r="F57" s="12"/>
@@ -1811,13 +1829,13 @@
         <v>63</v>
       </c>
       <c r="B58" s="14">
-        <v>23.2644</v>
+        <v>26.4601</v>
       </c>
       <c r="C58" s="15">
-        <v>-0.21</v>
+        <v>0.93</v>
       </c>
       <c r="D58" s="16">
-        <v>669375</v>
+        <v>790383</v>
       </c>
       <c r="E58" s="12"/>
       <c r="F58" s="12"/>
@@ -1827,13 +1845,13 @@
         <v>64</v>
       </c>
       <c r="B59" s="14">
-        <v>23.3123</v>
+        <v>26.216</v>
       </c>
       <c r="C59" s="15">
-        <v>2.64</v>
+        <v>2.94</v>
       </c>
       <c r="D59" s="16">
-        <v>664079</v>
+        <v>776660</v>
       </c>
       <c r="E59" s="12"/>
       <c r="F59" s="12"/>
@@ -1843,13 +1861,13 @@
         <v>65</v>
       </c>
       <c r="B60" s="14">
-        <v>22.7123</v>
+        <v>25.4686</v>
       </c>
       <c r="C60" s="15">
-        <v>8.07</v>
+        <v>0.81</v>
       </c>
       <c r="D60" s="16">
-        <v>665298</v>
+        <v>738134</v>
       </c>
       <c r="E60" s="12"/>
       <c r="F60" s="12"/>
@@ -1859,13 +1877,13 @@
         <v>66</v>
       </c>
       <c r="B61" s="14">
-        <v>21.0162</v>
+        <v>25.2641</v>
       </c>
       <c r="C61" s="15">
-        <v>-2.43</v>
+        <v>2.43</v>
       </c>
       <c r="D61" s="16">
-        <v>652380</v>
+        <v>699961</v>
       </c>
       <c r="E61" s="12"/>
       <c r="F61" s="12"/>
@@ -1875,13 +1893,13 @@
         <v>67</v>
       </c>
       <c r="B62" s="14">
-        <v>21.5397</v>
+        <v>24.6637</v>
       </c>
       <c r="C62" s="15">
-        <v>-1.43</v>
+        <v>3.99</v>
       </c>
       <c r="D62" s="16">
-        <v>645914</v>
+        <v>693073</v>
       </c>
       <c r="E62" s="12"/>
       <c r="F62" s="12"/>
@@ -1891,13 +1909,13 @@
         <v>68</v>
       </c>
       <c r="B63" s="14">
-        <v>21.8521</v>
+        <v>23.7184</v>
       </c>
       <c r="C63" s="15">
-        <v>3.79</v>
+        <v>1.95</v>
       </c>
       <c r="D63" s="16">
-        <v>638688</v>
+        <v>683131</v>
       </c>
       <c r="E63" s="12"/>
       <c r="F63" s="12"/>
@@ -1907,13 +1925,13 @@
         <v>69</v>
       </c>
       <c r="B64" s="14">
-        <v>21.0545</v>
+        <v>23.2644</v>
       </c>
       <c r="C64" s="15">
-        <v>1.42</v>
+        <v>-0.21</v>
       </c>
       <c r="D64" s="16">
-        <v>634572</v>
+        <v>669375</v>
       </c>
       <c r="E64" s="12"/>
       <c r="F64" s="12"/>
@@ -1923,13 +1941,13 @@
         <v>70</v>
       </c>
       <c r="B65" s="14">
-        <v>20.7596</v>
+        <v>23.3123</v>
       </c>
       <c r="C65" s="15">
-        <v>2.31</v>
+        <v>2.64</v>
       </c>
       <c r="D65" s="16">
-        <v>592528</v>
+        <v>664079</v>
       </c>
       <c r="E65" s="12"/>
       <c r="F65" s="12"/>
@@ -1939,13 +1957,13 @@
         <v>71</v>
       </c>
       <c r="B66" s="14">
-        <v>20.291</v>
+        <v>22.7123</v>
       </c>
       <c r="C66" s="15">
-        <v>3.67</v>
+        <v>8.07</v>
       </c>
       <c r="D66" s="16">
-        <v>553023</v>
+        <v>665298</v>
       </c>
       <c r="E66" s="12"/>
       <c r="F66" s="12"/>
@@ -1955,13 +1973,13 @@
         <v>72</v>
       </c>
       <c r="B67" s="14">
-        <v>19.5737</v>
+        <v>21.0162</v>
       </c>
       <c r="C67" s="15">
-        <v>9.63</v>
+        <v>-2.43</v>
       </c>
       <c r="D67" s="16">
-        <v>513782</v>
+        <v>652380</v>
       </c>
       <c r="E67" s="12"/>
       <c r="F67" s="12"/>
@@ -1971,13 +1989,13 @@
         <v>73</v>
       </c>
       <c r="B68" s="14">
-        <v>17.8538</v>
+        <v>21.5397</v>
       </c>
       <c r="C68" s="15">
-        <v>-12.39</v>
+        <v>-1.43</v>
       </c>
       <c r="D68" s="16">
-        <v>492961</v>
+        <v>645914</v>
       </c>
       <c r="E68" s="12"/>
       <c r="F68" s="12"/>
@@ -1987,13 +2005,13 @@
         <v>74</v>
       </c>
       <c r="B69" s="14">
-        <v>20.3789</v>
+        <v>21.8521</v>
       </c>
       <c r="C69" s="15">
-        <v>-6.63</v>
+        <v>3.79</v>
       </c>
       <c r="D69" s="16">
-        <v>515107</v>
+        <v>638688</v>
       </c>
       <c r="E69" s="12"/>
       <c r="F69" s="12"/>
@@ -2003,13 +2021,13 @@
         <v>75</v>
       </c>
       <c r="B70" s="14">
-        <v>21.8261</v>
+        <v>21.0545</v>
       </c>
       <c r="C70" s="15">
-        <v>-0.46</v>
+        <v>1.42</v>
       </c>
       <c r="D70" s="16">
-        <v>517498</v>
+        <v>634572</v>
       </c>
       <c r="E70" s="12"/>
       <c r="F70" s="12"/>
@@ -2019,13 +2037,13 @@
         <v>76</v>
       </c>
       <c r="B71" s="14">
-        <v>21.9263</v>
+        <v>20.7596</v>
       </c>
       <c r="C71" s="15">
-        <v>1.92</v>
+        <v>2.31</v>
       </c>
       <c r="D71" s="16">
-        <v>512041</v>
+        <v>592528</v>
       </c>
       <c r="E71" s="12"/>
       <c r="F71" s="12"/>
@@ -2035,13 +2053,13 @@
         <v>77</v>
       </c>
       <c r="B72" s="14">
-        <v>21.5127</v>
+        <v>20.291</v>
       </c>
       <c r="C72" s="15">
-        <v>3.05</v>
+        <v>3.67</v>
       </c>
       <c r="D72" s="16">
-        <v>547195</v>
+        <v>553023</v>
       </c>
       <c r="E72" s="12"/>
       <c r="F72" s="12"/>
@@ -2051,13 +2069,13 @@
         <v>78</v>
       </c>
       <c r="B73" s="14">
-        <v>20.8756</v>
+        <v>19.5737</v>
       </c>
       <c r="C73" s="15">
-        <v>0.72</v>
+        <v>9.63</v>
       </c>
       <c r="D73" s="16">
-        <v>539400</v>
+        <v>513782</v>
       </c>
       <c r="E73" s="12"/>
       <c r="F73" s="12"/>
@@ -2067,13 +2085,13 @@
         <v>79</v>
       </c>
       <c r="B74" s="14">
-        <v>20.7257</v>
+        <v>17.8538</v>
       </c>
       <c r="C74" s="15">
-        <v>1.57</v>
+        <v>-12.39</v>
       </c>
       <c r="D74" s="16">
-        <v>543319</v>
+        <v>492961</v>
       </c>
       <c r="E74" s="12"/>
       <c r="F74" s="12"/>
@@ -2083,13 +2101,13 @@
         <v>80</v>
       </c>
       <c r="B75" s="14">
-        <v>20.4048</v>
+        <v>20.3789</v>
       </c>
       <c r="C75" s="15">
-        <v>-1.57</v>
+        <v>-6.63</v>
       </c>
       <c r="D75" s="16">
-        <v>540095</v>
+        <v>515107</v>
       </c>
       <c r="E75" s="12"/>
       <c r="F75" s="12"/>
@@ -2099,13 +2117,13 @@
         <v>81</v>
       </c>
       <c r="B76" s="14">
-        <v>20.7295</v>
+        <v>21.8261</v>
       </c>
       <c r="C76" s="15">
-        <v>1.64</v>
+        <v>-0.46</v>
       </c>
       <c r="D76" s="16">
-        <v>539268</v>
+        <v>517498</v>
       </c>
       <c r="E76" s="12"/>
       <c r="F76" s="12"/>
@@ -2115,13 +2133,13 @@
         <v>82</v>
       </c>
       <c r="B77" s="14">
-        <v>20.3952</v>
+        <v>21.9263</v>
       </c>
       <c r="C77" s="15">
-        <v>4.12</v>
+        <v>1.92</v>
       </c>
       <c r="D77" s="16">
-        <v>531714</v>
+        <v>512041</v>
       </c>
       <c r="E77" s="12"/>
       <c r="F77" s="12"/>
@@ -2131,13 +2149,13 @@
         <v>83</v>
       </c>
       <c r="B78" s="14">
-        <v>19.588</v>
+        <v>21.5127</v>
       </c>
       <c r="C78" s="15">
-        <v>-5.02</v>
+        <v>3.05</v>
       </c>
       <c r="D78" s="16">
-        <v>514058</v>
+        <v>547195</v>
       </c>
       <c r="E78" s="12"/>
       <c r="F78" s="12"/>
@@ -2147,13 +2165,13 @@
         <v>84</v>
       </c>
       <c r="B79" s="14">
-        <v>20.6233</v>
+        <v>20.8756</v>
       </c>
       <c r="C79" s="15">
-        <v>3.46</v>
+        <v>0.72</v>
       </c>
       <c r="D79" s="16">
-        <v>457857</v>
+        <v>539400</v>
       </c>
       <c r="E79" s="12"/>
       <c r="F79" s="12"/>
@@ -2163,13 +2181,13 @@
         <v>85</v>
       </c>
       <c r="B80" s="14">
-        <v>19.9343</v>
+        <v>20.7257</v>
       </c>
       <c r="C80" s="15">
-        <v>2.25</v>
+        <v>1.57</v>
       </c>
       <c r="D80" s="16">
-        <v>449025</v>
+        <v>543319</v>
       </c>
       <c r="E80" s="12"/>
       <c r="F80" s="12"/>
@@ -2179,13 +2197,13 @@
         <v>86</v>
       </c>
       <c r="B81" s="14">
-        <v>19.4958</v>
+        <v>20.4048</v>
       </c>
       <c r="C81" s="15">
-        <v>3.37</v>
+        <v>-1.57</v>
       </c>
       <c r="D81" s="16">
-        <v>444163</v>
+        <v>540095</v>
       </c>
       <c r="E81" s="12"/>
       <c r="F81" s="12"/>
@@ -2195,13 +2213,13 @@
         <v>87</v>
       </c>
       <c r="B82" s="14">
-        <v>18.8604</v>
+        <v>20.7295</v>
       </c>
       <c r="C82" s="15">
-        <v>6.56</v>
+        <v>1.64</v>
       </c>
       <c r="D82" s="16">
-        <v>436937</v>
+        <v>539268</v>
       </c>
       <c r="E82" s="12"/>
       <c r="F82" s="12"/>
@@ -2211,13 +2229,13 @@
         <v>88</v>
       </c>
       <c r="B83" s="14">
-        <v>17.6992</v>
+        <v>20.3952</v>
       </c>
       <c r="C83" s="15">
-        <v>-6.5</v>
+        <v>4.12</v>
       </c>
       <c r="D83" s="16">
-        <v>432486</v>
+        <v>531714</v>
       </c>
       <c r="E83" s="12"/>
       <c r="F83" s="12"/>
@@ -2227,13 +2245,13 @@
         <v>89</v>
       </c>
       <c r="B84" s="14">
-        <v>18.9305</v>
+        <v>19.588</v>
       </c>
       <c r="C84" s="15">
-        <v>-0.19</v>
+        <v>-5.02</v>
       </c>
       <c r="D84" s="16">
-        <v>441167</v>
+        <v>514058</v>
       </c>
       <c r="E84" s="12"/>
       <c r="F84" s="12"/>
@@ -2243,13 +2261,13 @@
         <v>90</v>
       </c>
       <c r="B85" s="14">
-        <v>18.9658</v>
+        <v>20.6233</v>
       </c>
       <c r="C85" s="15">
-        <v>-6.27</v>
+        <v>3.46</v>
       </c>
       <c r="D85" s="16">
-        <v>433610</v>
+        <v>457857</v>
       </c>
       <c r="E85" s="12"/>
       <c r="F85" s="12"/>
@@ -2259,13 +2277,13 @@
         <v>91</v>
       </c>
       <c r="B86" s="14">
-        <v>20.2354</v>
+        <v>19.9343</v>
       </c>
       <c r="C86" s="15">
-        <v>-0.04</v>
+        <v>2.25</v>
       </c>
       <c r="D86" s="16">
-        <v>430794</v>
+        <v>449025</v>
       </c>
       <c r="E86" s="12"/>
       <c r="F86" s="12"/>
@@ -2275,13 +2293,13 @@
         <v>92</v>
       </c>
       <c r="B87" s="14">
-        <v>20.2444</v>
+        <v>19.4958</v>
       </c>
       <c r="C87" s="15">
-        <v>0.35</v>
+        <v>3.37</v>
       </c>
       <c r="D87" s="16">
-        <v>429327</v>
+        <v>444163</v>
       </c>
       <c r="E87" s="12"/>
       <c r="F87" s="12"/>
@@ -2291,13 +2309,13 @@
         <v>93</v>
       </c>
       <c r="B88" s="14">
-        <v>20.1741</v>
+        <v>18.8604</v>
       </c>
       <c r="C88" s="15">
-        <v>1.61</v>
+        <v>6.56</v>
       </c>
       <c r="D88" s="16">
-        <v>427149</v>
+        <v>436937</v>
       </c>
       <c r="E88" s="12"/>
       <c r="F88" s="12"/>
@@ -2307,13 +2325,13 @@
         <v>94</v>
       </c>
       <c r="B89" s="14">
-        <v>19.8541</v>
+        <v>17.6992</v>
       </c>
       <c r="C89" s="15">
-        <v>-0.9</v>
+        <v>-6.5</v>
       </c>
       <c r="D89" s="16">
-        <v>418282</v>
+        <v>432486</v>
       </c>
       <c r="E89" s="12"/>
       <c r="F89" s="12"/>
@@ -2323,13 +2341,13 @@
         <v>95</v>
       </c>
       <c r="B90" s="14">
-        <v>20.0337</v>
+        <v>18.9305</v>
       </c>
       <c r="C90" s="15">
-        <v>2.51</v>
+        <v>-0.19</v>
       </c>
       <c r="D90" s="16">
-        <v>398648</v>
+        <v>441167</v>
       </c>
       <c r="E90" s="12"/>
       <c r="F90" s="12"/>
@@ -2339,13 +2357,13 @@
         <v>96</v>
       </c>
       <c r="B91" s="14">
-        <v>19.5433</v>
+        <v>18.9658</v>
       </c>
       <c r="C91" s="15">
-        <v>2.64</v>
+        <v>-6.27</v>
       </c>
       <c r="D91" s="16">
-        <v>382069</v>
+        <v>433610</v>
       </c>
       <c r="E91" s="12"/>
       <c r="F91" s="12"/>
@@ -2355,13 +2373,13 @@
         <v>97</v>
       </c>
       <c r="B92" s="14">
-        <v>19.0399</v>
+        <v>20.2354</v>
       </c>
       <c r="C92" s="15">
-        <v>-2.86</v>
+        <v>-0.04</v>
       </c>
       <c r="D92" s="16">
-        <v>374632</v>
+        <v>430794</v>
       </c>
       <c r="E92" s="12"/>
       <c r="F92" s="12"/>
@@ -2371,13 +2389,13 @@
         <v>98</v>
       </c>
       <c r="B93" s="14">
-        <v>19.5999</v>
+        <v>20.2444</v>
       </c>
       <c r="C93" s="15">
-        <v>-2.53</v>
+        <v>0.35</v>
       </c>
       <c r="D93" s="16">
-        <v>369912</v>
+        <v>429327</v>
       </c>
       <c r="E93" s="12"/>
       <c r="F93" s="12"/>
@@ -2387,13 +2405,13 @@
         <v>99</v>
       </c>
       <c r="B94" s="14">
-        <v>20.1076</v>
+        <v>20.1741</v>
       </c>
       <c r="C94" s="15">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="D94" s="16">
-        <v>366046</v>
+        <v>427149</v>
       </c>
       <c r="E94" s="12"/>
       <c r="F94" s="12"/>
@@ -2403,13 +2421,13 @@
         <v>100</v>
       </c>
       <c r="B95" s="14">
-        <v>19.788</v>
+        <v>19.8541</v>
       </c>
       <c r="C95" s="15">
-        <v>0.76</v>
+        <v>-0.9</v>
       </c>
       <c r="D95" s="16">
-        <v>354532</v>
+        <v>418282</v>
       </c>
       <c r="E95" s="12"/>
       <c r="F95" s="12"/>
@@ -2419,13 +2437,13 @@
         <v>101</v>
       </c>
       <c r="B96" s="14">
-        <v>19.6395</v>
+        <v>20.0337</v>
       </c>
       <c r="C96" s="15">
-        <v>-0.84</v>
+        <v>2.51</v>
       </c>
       <c r="D96" s="16">
-        <v>342353</v>
+        <v>398648</v>
       </c>
       <c r="E96" s="12"/>
       <c r="F96" s="12"/>
@@ -2435,13 +2453,13 @@
         <v>102</v>
       </c>
       <c r="B97" s="14">
-        <v>19.8056</v>
+        <v>19.5433</v>
       </c>
       <c r="C97" s="15">
-        <v>2.88</v>
+        <v>2.64</v>
       </c>
       <c r="D97" s="16">
-        <v>339601</v>
+        <v>382069</v>
       </c>
       <c r="E97" s="12"/>
       <c r="F97" s="12"/>
@@ -2451,13 +2469,13 @@
         <v>103</v>
       </c>
       <c r="B98" s="14">
-        <v>19.2505</v>
+        <v>19.0399</v>
       </c>
       <c r="C98" s="15">
-        <v>2.61</v>
+        <v>-2.86</v>
       </c>
       <c r="D98" s="16">
-        <v>333294</v>
+        <v>374632</v>
       </c>
       <c r="E98" s="12"/>
       <c r="F98" s="12"/>
@@ -2467,13 +2485,13 @@
         <v>104</v>
       </c>
       <c r="B99" s="14">
-        <v>18.7615</v>
+        <v>19.5999</v>
       </c>
       <c r="C99" s="15">
-        <v>-0.46</v>
+        <v>-2.53</v>
       </c>
       <c r="D99" s="16">
-        <v>329749</v>
+        <v>369912</v>
       </c>
       <c r="E99" s="12"/>
       <c r="F99" s="12"/>
@@ -2483,13 +2501,13 @@
         <v>105</v>
       </c>
       <c r="B100" s="14">
-        <v>18.8489</v>
+        <v>20.1076</v>
       </c>
       <c r="C100" s="15">
-        <v>-0.46</v>
+        <v>1.62</v>
       </c>
       <c r="D100" s="16">
-        <v>323072</v>
+        <v>366046</v>
       </c>
       <c r="E100" s="12"/>
       <c r="F100" s="12"/>
@@ -2499,13 +2517,13 @@
         <v>106</v>
       </c>
       <c r="B101" s="14">
-        <v>18.936</v>
+        <v>19.788</v>
       </c>
       <c r="C101" s="15">
-        <v>-1.21</v>
+        <v>0.76</v>
       </c>
       <c r="D101" s="16">
-        <v>320762</v>
+        <v>354532</v>
       </c>
       <c r="E101" s="12"/>
       <c r="F101" s="12"/>
@@ -2515,13 +2533,13 @@
         <v>107</v>
       </c>
       <c r="B102" s="14">
-        <v>19.1673</v>
+        <v>19.6395</v>
       </c>
       <c r="C102" s="15">
-        <v>0.37</v>
+        <v>-0.84</v>
       </c>
       <c r="D102" s="16">
-        <v>309610</v>
+        <v>342353</v>
       </c>
       <c r="E102" s="12"/>
       <c r="F102" s="12"/>
@@ -2531,13 +2549,13 @@
         <v>108</v>
       </c>
       <c r="B103" s="14">
-        <v>19.0972</v>
+        <v>19.8056</v>
       </c>
       <c r="C103" s="15">
-        <v>0.85</v>
+        <v>2.88</v>
       </c>
       <c r="D103" s="16">
-        <v>286694</v>
+        <v>339601</v>
       </c>
       <c r="E103" s="12"/>
       <c r="F103" s="12"/>
@@ -2547,13 +2565,13 @@
         <v>109</v>
       </c>
       <c r="B104" s="14">
-        <v>18.9363</v>
+        <v>19.2505</v>
       </c>
       <c r="C104" s="15">
-        <v>1.14</v>
+        <v>2.61</v>
       </c>
       <c r="D104" s="16">
-        <v>283591</v>
+        <v>333294</v>
       </c>
       <c r="E104" s="12"/>
       <c r="F104" s="12"/>
@@ -2563,13 +2581,13 @@
         <v>110</v>
       </c>
       <c r="B105" s="14">
-        <v>18.7226</v>
+        <v>18.7615</v>
       </c>
       <c r="C105" s="15">
-        <v>3.11</v>
+        <v>-0.46</v>
       </c>
       <c r="D105" s="16">
-        <v>278077</v>
+        <v>329749</v>
       </c>
       <c r="E105" s="12"/>
       <c r="F105" s="12"/>
@@ -2579,13 +2597,13 @@
         <v>111</v>
       </c>
       <c r="B106" s="14">
-        <v>18.1573</v>
+        <v>18.8489</v>
       </c>
       <c r="C106" s="15">
-        <v>0.54</v>
+        <v>-0.46</v>
       </c>
       <c r="D106" s="16">
-        <v>270220</v>
+        <v>323072</v>
       </c>
       <c r="E106" s="12"/>
       <c r="F106" s="12"/>
@@ -2595,13 +2613,13 @@
         <v>112</v>
       </c>
       <c r="B107" s="14">
-        <v>18.0602</v>
+        <v>18.936</v>
       </c>
       <c r="C107" s="15">
-        <v>2.8</v>
+        <v>-1.21</v>
       </c>
       <c r="D107" s="16">
-        <v>266970</v>
+        <v>320762</v>
       </c>
       <c r="E107" s="12"/>
       <c r="F107" s="12"/>
@@ -2611,13 +2629,13 @@
         <v>113</v>
       </c>
       <c r="B108" s="14">
-        <v>17.569</v>
+        <v>19.1673</v>
       </c>
       <c r="C108" s="15">
-        <v>1.4</v>
+        <v>0.37</v>
       </c>
       <c r="D108" s="16">
-        <v>261671</v>
+        <v>309610</v>
       </c>
       <c r="E108" s="12"/>
       <c r="F108" s="12"/>
@@ -2627,13 +2645,13 @@
         <v>114</v>
       </c>
       <c r="B109" s="14">
-        <v>17.3259</v>
+        <v>19.0972</v>
       </c>
       <c r="C109" s="15">
-        <v>-0.56</v>
+        <v>0.85</v>
       </c>
       <c r="D109" s="16">
-        <v>259964</v>
+        <v>286694</v>
       </c>
       <c r="E109" s="12"/>
       <c r="F109" s="12"/>
@@ -2643,13 +2661,13 @@
         <v>115</v>
       </c>
       <c r="B110" s="14">
-        <v>17.4228</v>
+        <v>18.9363</v>
       </c>
       <c r="C110" s="15">
-        <v>-0.11</v>
+        <v>1.14</v>
       </c>
       <c r="D110" s="16">
-        <v>257685</v>
+        <v>283591</v>
       </c>
       <c r="E110" s="12"/>
       <c r="F110" s="12"/>
@@ -2659,13 +2677,13 @@
         <v>116</v>
       </c>
       <c r="B111" s="14">
-        <v>17.4416</v>
+        <v>18.7226</v>
       </c>
       <c r="C111" s="15">
-        <v>-0.25</v>
+        <v>3.11</v>
       </c>
       <c r="D111" s="16">
-        <v>250821</v>
+        <v>278077</v>
       </c>
       <c r="E111" s="12"/>
       <c r="F111" s="12"/>
@@ -2675,13 +2693,13 @@
         <v>117</v>
       </c>
       <c r="B112" s="14">
-        <v>17.4856</v>
+        <v>18.1573</v>
       </c>
       <c r="C112" s="15">
-        <v>4.16</v>
+        <v>0.54</v>
       </c>
       <c r="D112" s="16">
-        <v>250270</v>
+        <v>270220</v>
       </c>
       <c r="E112" s="12"/>
       <c r="F112" s="12"/>
@@ -2691,13 +2709,13 @@
         <v>118</v>
       </c>
       <c r="B113" s="14">
-        <v>16.7878</v>
+        <v>18.0602</v>
       </c>
       <c r="C113" s="15">
-        <v>-1.64</v>
+        <v>2.8</v>
       </c>
       <c r="D113" s="16">
-        <v>254846</v>
+        <v>266970</v>
       </c>
       <c r="E113" s="12"/>
       <c r="F113" s="12"/>
@@ -2707,13 +2725,13 @@
         <v>119</v>
       </c>
       <c r="B114" s="14">
-        <v>17.0676</v>
+        <v>17.569</v>
       </c>
       <c r="C114" s="15">
-        <v>2.47</v>
+        <v>1.4</v>
       </c>
       <c r="D114" s="16">
-        <v>252168</v>
+        <v>261671</v>
       </c>
       <c r="E114" s="12"/>
       <c r="F114" s="12"/>
@@ -2723,13 +2741,13 @@
         <v>120</v>
       </c>
       <c r="B115" s="14">
-        <v>16.6561</v>
+        <v>17.3259</v>
       </c>
       <c r="C115" s="15">
-        <v>1.15</v>
+        <v>-0.56</v>
       </c>
       <c r="D115" s="16">
-        <v>237273</v>
+        <v>259964</v>
       </c>
       <c r="E115" s="12"/>
       <c r="F115" s="12"/>
@@ -2739,13 +2757,13 @@
         <v>121</v>
       </c>
       <c r="B116" s="14">
-        <v>16.4669</v>
+        <v>17.4228</v>
       </c>
       <c r="C116" s="15">
-        <v>2.39</v>
+        <v>-0.11</v>
       </c>
       <c r="D116" s="16">
-        <v>228801</v>
+        <v>257685</v>
       </c>
       <c r="E116" s="12"/>
       <c r="F116" s="12"/>
@@ -2755,13 +2773,13 @@
         <v>122</v>
       </c>
       <c r="B117" s="14">
-        <v>16.0822</v>
+        <v>17.4416</v>
       </c>
       <c r="C117" s="15">
-        <v>-0.52</v>
+        <v>-0.25</v>
       </c>
       <c r="D117" s="16">
-        <v>219295</v>
+        <v>250821</v>
       </c>
       <c r="E117" s="12"/>
       <c r="F117" s="12"/>
@@ -2771,13 +2789,13 @@
         <v>123</v>
       </c>
       <c r="B118" s="14">
-        <v>16.1665</v>
+        <v>17.4856</v>
       </c>
       <c r="C118" s="15">
-        <v>-5.51</v>
+        <v>4.16</v>
       </c>
       <c r="D118" s="16">
-        <v>217437</v>
+        <v>250270</v>
       </c>
       <c r="E118" s="12"/>
       <c r="F118" s="12"/>
@@ -2787,13 +2805,13 @@
         <v>124</v>
       </c>
       <c r="B119" s="14">
-        <v>17.1087</v>
+        <v>16.7878</v>
       </c>
       <c r="C119" s="15">
-        <v>-3.76</v>
+        <v>-1.64</v>
       </c>
       <c r="D119" s="16">
-        <v>222781</v>
+        <v>254846</v>
       </c>
       <c r="E119" s="12"/>
       <c r="F119" s="12"/>
@@ -2803,13 +2821,13 @@
         <v>125</v>
       </c>
       <c r="B120" s="14">
-        <v>17.7776</v>
+        <v>17.0676</v>
       </c>
       <c r="C120" s="15">
-        <v>3.45</v>
+        <v>2.47</v>
       </c>
       <c r="D120" s="16">
-        <v>216278</v>
+        <v>252168</v>
       </c>
       <c r="E120" s="12"/>
       <c r="F120" s="12"/>
@@ -2819,13 +2837,13 @@
         <v>126</v>
       </c>
       <c r="B121" s="14">
-        <v>17.1845</v>
+        <v>16.6561</v>
       </c>
       <c r="C121" s="15">
-        <v>7.96</v>
+        <v>1.15</v>
       </c>
       <c r="D121" s="16">
-        <v>216383</v>
+        <v>237273</v>
       </c>
       <c r="E121" s="12"/>
       <c r="F121" s="12"/>
@@ -2835,13 +2853,13 @@
         <v>127</v>
       </c>
       <c r="B122" s="14">
-        <v>15.9169</v>
+        <v>16.4669</v>
       </c>
       <c r="C122" s="15">
-        <v>-3.12</v>
+        <v>2.39</v>
       </c>
       <c r="D122" s="16">
-        <v>214466</v>
+        <v>228801</v>
       </c>
       <c r="E122" s="12"/>
       <c r="F122" s="12"/>
@@ -2851,13 +2869,13 @@
         <v>128</v>
       </c>
       <c r="B123" s="14">
-        <v>16.4299</v>
+        <v>16.0822</v>
       </c>
       <c r="C123" s="15">
-        <v>-7.28</v>
+        <v>-0.52</v>
       </c>
       <c r="D123" s="16">
-        <v>208732</v>
+        <v>219295</v>
       </c>
       <c r="E123" s="12"/>
       <c r="F123" s="12"/>
@@ -2867,13 +2885,13 @@
         <v>129</v>
       </c>
       <c r="B124" s="14">
-        <v>17.72</v>
+        <v>16.1665</v>
       </c>
       <c r="C124" s="15">
-        <v>2.37</v>
+        <v>-5.51</v>
       </c>
       <c r="D124" s="16">
-        <v>208092</v>
+        <v>217437</v>
       </c>
       <c r="E124" s="12"/>
       <c r="F124" s="12"/>
@@ -2883,13 +2901,13 @@
         <v>130</v>
       </c>
       <c r="B125" s="14">
-        <v>17.3104</v>
+        <v>17.1087</v>
       </c>
       <c r="C125" s="15">
-        <v>-3.91</v>
+        <v>-3.76</v>
       </c>
       <c r="D125" s="16">
-        <v>195703</v>
+        <v>222781</v>
       </c>
       <c r="E125" s="12"/>
       <c r="F125" s="12"/>
@@ -2899,13 +2917,13 @@
         <v>131</v>
       </c>
       <c r="B126" s="14">
-        <v>18.0154</v>
+        <v>17.7776</v>
       </c>
       <c r="C126" s="15">
-        <v>2.17</v>
+        <v>3.45</v>
       </c>
       <c r="D126" s="16">
-        <v>188492</v>
+        <v>216278</v>
       </c>
       <c r="E126" s="12"/>
       <c r="F126" s="12"/>
@@ -2915,13 +2933,13 @@
         <v>132</v>
       </c>
       <c r="B127" s="14">
-        <v>17.6328</v>
+        <v>17.1845</v>
       </c>
       <c r="C127" s="15">
-        <v>-0.54</v>
+        <v>7.96</v>
       </c>
       <c r="D127" s="16">
-        <v>178908</v>
+        <v>216383</v>
       </c>
       <c r="E127" s="12"/>
       <c r="F127" s="12"/>
@@ -2931,13 +2949,13 @@
         <v>133</v>
       </c>
       <c r="B128" s="14">
-        <v>17.7291</v>
+        <v>15.9169</v>
       </c>
       <c r="C128" s="15">
-        <v>2.36</v>
+        <v>-3.12</v>
       </c>
       <c r="D128" s="16">
-        <v>169055</v>
+        <v>214466</v>
       </c>
       <c r="E128" s="12"/>
       <c r="F128" s="12"/>
@@ -2947,13 +2965,13 @@
         <v>134</v>
       </c>
       <c r="B129" s="14">
-        <v>17.3198</v>
+        <v>16.4299</v>
       </c>
       <c r="C129" s="15">
-        <v>5.4</v>
+        <v>-7.28</v>
       </c>
       <c r="D129" s="16">
-        <v>158392</v>
+        <v>208732</v>
       </c>
       <c r="E129" s="12"/>
       <c r="F129" s="12"/>
@@ -2963,13 +2981,13 @@
         <v>135</v>
       </c>
       <c r="B130" s="14">
-        <v>16.4327</v>
+        <v>17.72</v>
       </c>
       <c r="C130" s="15">
-        <v>5.71</v>
+        <v>2.37</v>
       </c>
       <c r="D130" s="16">
-        <v>153720</v>
+        <v>208092</v>
       </c>
       <c r="E130" s="12"/>
       <c r="F130" s="12"/>
@@ -2979,13 +2997,13 @@
         <v>136</v>
       </c>
       <c r="B131" s="14">
-        <v>15.545</v>
+        <v>17.3104</v>
       </c>
       <c r="C131" s="15">
-        <v>0.22</v>
+        <v>-3.91</v>
       </c>
       <c r="D131" s="16">
-        <v>148423</v>
+        <v>195703</v>
       </c>
       <c r="E131" s="12"/>
       <c r="F131" s="12"/>
@@ -2995,13 +3013,13 @@
         <v>137</v>
       </c>
       <c r="B132" s="14">
-        <v>15.5113</v>
+        <v>18.0154</v>
       </c>
       <c r="C132" s="15">
-        <v>3.22</v>
+        <v>2.17</v>
       </c>
       <c r="D132" s="16">
-        <v>140421</v>
+        <v>188492</v>
       </c>
       <c r="E132" s="12"/>
       <c r="F132" s="12"/>
@@ -3011,13 +3029,13 @@
         <v>138</v>
       </c>
       <c r="B133" s="14">
-        <v>15.0271</v>
+        <v>17.6328</v>
       </c>
       <c r="C133" s="15">
-        <v>-0.13</v>
+        <v>-0.54</v>
       </c>
       <c r="D133" s="16">
-        <v>135614</v>
+        <v>178908</v>
       </c>
       <c r="E133" s="12"/>
       <c r="F133" s="12"/>
@@ -3027,13 +3045,13 @@
         <v>139</v>
       </c>
       <c r="B134" s="14">
-        <v>15.0466</v>
+        <v>17.7291</v>
       </c>
       <c r="C134" s="15">
-        <v>1.17</v>
+        <v>2.36</v>
       </c>
       <c r="D134" s="16">
-        <v>133711</v>
+        <v>169055</v>
       </c>
       <c r="E134" s="12"/>
       <c r="F134" s="12"/>
@@ -3043,13 +3061,13 @@
         <v>140</v>
       </c>
       <c r="B135" s="14">
-        <v>14.872</v>
+        <v>17.3198</v>
       </c>
       <c r="C135" s="15">
-        <v>2.36</v>
+        <v>5.4</v>
       </c>
       <c r="D135" s="16">
-        <v>127912</v>
+        <v>158392</v>
       </c>
       <c r="E135" s="12"/>
       <c r="F135" s="12"/>
@@ -3059,13 +3077,13 @@
         <v>141</v>
       </c>
       <c r="B136" s="14">
-        <v>14.5297</v>
+        <v>16.4327</v>
       </c>
       <c r="C136" s="15">
-        <v>-0.4</v>
+        <v>5.71</v>
       </c>
       <c r="D136" s="16">
-        <v>126995</v>
+        <v>153720</v>
       </c>
       <c r="E136" s="12"/>
       <c r="F136" s="12"/>
@@ -3075,13 +3093,13 @@
         <v>142</v>
       </c>
       <c r="B137" s="14">
-        <v>14.5881</v>
+        <v>15.545</v>
       </c>
       <c r="C137" s="15">
-        <v>1.03</v>
+        <v>0.22</v>
       </c>
       <c r="D137" s="16">
-        <v>121193</v>
+        <v>148423</v>
       </c>
       <c r="E137" s="12"/>
       <c r="F137" s="12"/>
@@ -3091,13 +3109,13 @@
         <v>143</v>
       </c>
       <c r="B138" s="14">
-        <v>14.4397</v>
+        <v>15.5113</v>
       </c>
       <c r="C138" s="15">
-        <v>3.08</v>
+        <v>3.22</v>
       </c>
       <c r="D138" s="16">
-        <v>116553</v>
+        <v>140421</v>
       </c>
       <c r="E138" s="12"/>
       <c r="F138" s="12"/>
@@ -3107,13 +3125,13 @@
         <v>144</v>
       </c>
       <c r="B139" s="14">
-        <v>14.0081</v>
+        <v>15.0271</v>
       </c>
       <c r="C139" s="15">
-        <v>-0.6</v>
+        <v>-0.13</v>
       </c>
       <c r="D139" s="16">
-        <v>106923</v>
+        <v>135614</v>
       </c>
       <c r="E139" s="12"/>
       <c r="F139" s="12"/>
@@ -3123,13 +3141,13 @@
         <v>145</v>
       </c>
       <c r="B140" s="14">
-        <v>14.0929</v>
+        <v>15.0466</v>
       </c>
       <c r="C140" s="15">
-        <v>-0.78</v>
+        <v>1.17</v>
       </c>
       <c r="D140" s="16">
-        <v>100144</v>
+        <v>133711</v>
       </c>
       <c r="E140" s="12"/>
       <c r="F140" s="12"/>
@@ -3139,13 +3157,13 @@
         <v>146</v>
       </c>
       <c r="B141" s="14">
-        <v>14.2031</v>
+        <v>14.872</v>
       </c>
       <c r="C141" s="15">
-        <v>2.84</v>
+        <v>2.36</v>
       </c>
       <c r="D141" s="16">
-        <v>82537</v>
+        <v>127912</v>
       </c>
       <c r="E141" s="12"/>
       <c r="F141" s="12"/>
@@ -3155,13 +3173,13 @@
         <v>147</v>
       </c>
       <c r="B142" s="14">
-        <v>13.8116</v>
+        <v>14.5297</v>
       </c>
       <c r="C142" s="15">
-        <v>-2.32</v>
+        <v>-0.4</v>
       </c>
       <c r="D142" s="16">
-        <v>79058</v>
+        <v>126995</v>
       </c>
       <c r="E142" s="12"/>
       <c r="F142" s="12"/>
@@ -3171,13 +3189,13 @@
         <v>148</v>
       </c>
       <c r="B143" s="14">
-        <v>14.1402</v>
+        <v>14.5881</v>
       </c>
       <c r="C143" s="15">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="D143" s="16">
-        <v>71522</v>
+        <v>121193</v>
       </c>
       <c r="E143" s="12"/>
       <c r="F143" s="12"/>
@@ -3187,13 +3205,13 @@
         <v>149</v>
       </c>
       <c r="B144" s="14">
-        <v>14.005</v>
+        <v>14.4397</v>
       </c>
       <c r="C144" s="15">
-        <v>1.91</v>
+        <v>3.08</v>
       </c>
       <c r="D144" s="16">
-        <v>67525</v>
+        <v>116553</v>
       </c>
       <c r="E144" s="12"/>
       <c r="F144" s="12"/>
@@ -3203,13 +3221,13 @@
         <v>150</v>
       </c>
       <c r="B145" s="14">
-        <v>13.7426</v>
+        <v>14.0081</v>
       </c>
       <c r="C145" s="15">
-        <v>1.75</v>
+        <v>-0.6</v>
       </c>
       <c r="D145" s="16">
-        <v>67308</v>
+        <v>106923</v>
       </c>
       <c r="E145" s="12"/>
       <c r="F145" s="12"/>
@@ -3219,13 +3237,13 @@
         <v>151</v>
       </c>
       <c r="B146" s="14">
-        <v>13.5058</v>
+        <v>14.0929</v>
       </c>
       <c r="C146" s="15">
-        <v>3.69</v>
+        <v>-0.78</v>
       </c>
       <c r="D146" s="16">
-        <v>69904</v>
+        <v>100144</v>
       </c>
       <c r="E146" s="12"/>
       <c r="F146" s="12"/>
@@ -3235,13 +3253,13 @@
         <v>152</v>
       </c>
       <c r="B147" s="14">
-        <v>13.0249</v>
+        <v>14.2031</v>
       </c>
       <c r="C147" s="15">
-        <v>-1.51</v>
+        <v>2.84</v>
       </c>
       <c r="D147" s="16">
-        <v>68016</v>
+        <v>82537</v>
       </c>
       <c r="E147" s="12"/>
       <c r="F147" s="12"/>
@@ -3251,13 +3269,13 @@
         <v>153</v>
       </c>
       <c r="B148" s="14">
-        <v>13.2247</v>
+        <v>13.8116</v>
       </c>
       <c r="C148" s="15">
-        <v>3.05</v>
+        <v>-2.32</v>
       </c>
       <c r="D148" s="16">
-        <v>67019</v>
+        <v>79058</v>
       </c>
       <c r="E148" s="12"/>
       <c r="F148" s="12"/>
@@ -3267,13 +3285,13 @@
         <v>154</v>
       </c>
       <c r="B149" s="14">
-        <v>12.833</v>
+        <v>14.1402</v>
       </c>
       <c r="C149" s="15">
-        <v>-3.54</v>
+        <v>0.97</v>
       </c>
       <c r="D149" s="16">
-        <v>66131</v>
+        <v>71522</v>
       </c>
       <c r="E149" s="12"/>
       <c r="F149" s="12"/>
@@ -3283,13 +3301,13 @@
         <v>155</v>
       </c>
       <c r="B150" s="14">
-        <v>13.3034</v>
+        <v>14.005</v>
       </c>
       <c r="C150" s="15">
-        <v>0.92</v>
+        <v>1.91</v>
       </c>
       <c r="D150" s="16">
-        <v>62527</v>
+        <v>67525</v>
       </c>
       <c r="E150" s="12"/>
       <c r="F150" s="12"/>
@@ -3299,13 +3317,13 @@
         <v>156</v>
       </c>
       <c r="B151" s="14">
-        <v>13.182</v>
+        <v>13.7426</v>
       </c>
       <c r="C151" s="15">
-        <v>0.14</v>
+        <v>1.75</v>
       </c>
       <c r="D151" s="16">
-        <v>57050</v>
+        <v>67308</v>
       </c>
       <c r="E151" s="12"/>
       <c r="F151" s="12"/>
@@ -3315,13 +3333,13 @@
         <v>157</v>
       </c>
       <c r="B152" s="14">
-        <v>13.1633</v>
+        <v>13.5058</v>
       </c>
       <c r="C152" s="15">
-        <v>3.37</v>
+        <v>3.69</v>
       </c>
       <c r="D152" s="16">
-        <v>50637</v>
+        <v>69904</v>
       </c>
       <c r="E152" s="12"/>
       <c r="F152" s="12"/>
@@ -3331,13 +3349,13 @@
         <v>158</v>
       </c>
       <c r="B153" s="14">
-        <v>12.7345</v>
+        <v>13.0249</v>
       </c>
       <c r="C153" s="15">
-        <v>2.73</v>
+        <v>-1.51</v>
       </c>
       <c r="D153" s="16">
-        <v>49211</v>
+        <v>68016</v>
       </c>
       <c r="E153" s="12"/>
       <c r="F153" s="12"/>
@@ -3347,13 +3365,13 @@
         <v>159</v>
       </c>
       <c r="B154" s="14">
-        <v>12.3962</v>
+        <v>13.2247</v>
       </c>
       <c r="C154" s="15">
-        <v>1.5</v>
+        <v>3.05</v>
       </c>
       <c r="D154" s="16">
-        <v>46183</v>
+        <v>67019</v>
       </c>
       <c r="E154" s="12"/>
       <c r="F154" s="12"/>
@@ -3363,13 +3381,13 @@
         <v>160</v>
       </c>
       <c r="B155" s="14">
-        <v>12.213</v>
+        <v>12.833</v>
       </c>
       <c r="C155" s="15">
-        <v>1.1</v>
+        <v>-3.54</v>
       </c>
       <c r="D155" s="16">
-        <v>41927</v>
+        <v>66131</v>
       </c>
       <c r="E155" s="12"/>
       <c r="F155" s="12"/>
@@ -3379,13 +3397,13 @@
         <v>161</v>
       </c>
       <c r="B156" s="14">
-        <v>12.0798</v>
+        <v>13.3034</v>
       </c>
       <c r="C156" s="15">
-        <v>1.44</v>
+        <v>0.92</v>
       </c>
       <c r="D156" s="16">
-        <v>33971</v>
+        <v>62527</v>
       </c>
       <c r="E156" s="12"/>
       <c r="F156" s="12"/>
@@ -3395,13 +3413,13 @@
         <v>162</v>
       </c>
       <c r="B157" s="14">
-        <v>11.9086</v>
+        <v>13.182</v>
       </c>
       <c r="C157" s="15">
-        <v>-1.33</v>
+        <v>0.14</v>
       </c>
       <c r="D157" s="16">
-        <v>34869</v>
+        <v>57050</v>
       </c>
       <c r="E157" s="12"/>
       <c r="F157" s="12"/>
@@ -3411,13 +3429,13 @@
         <v>163</v>
       </c>
       <c r="B158" s="14">
-        <v>12.0696</v>
+        <v>13.1633</v>
       </c>
       <c r="C158" s="15">
-        <v>1</v>
+        <v>3.37</v>
       </c>
       <c r="D158" s="16">
-        <v>34311</v>
+        <v>50637</v>
       </c>
       <c r="E158" s="12"/>
       <c r="F158" s="12"/>
@@ -3427,13 +3445,13 @@
         <v>164</v>
       </c>
       <c r="B159" s="14">
-        <v>11.9499</v>
+        <v>12.7345</v>
       </c>
       <c r="C159" s="15">
-        <v>0.04</v>
+        <v>2.73</v>
       </c>
       <c r="D159" s="16">
-        <v>33943</v>
+        <v>49211</v>
       </c>
       <c r="E159" s="12"/>
       <c r="F159" s="12"/>
@@ -3443,13 +3461,13 @@
         <v>165</v>
       </c>
       <c r="B160" s="14">
-        <v>11.9446</v>
+        <v>12.3962</v>
       </c>
       <c r="C160" s="15">
-        <v>2.91</v>
+        <v>1.5</v>
       </c>
       <c r="D160" s="16">
-        <v>32678</v>
+        <v>46183</v>
       </c>
       <c r="E160" s="12"/>
       <c r="F160" s="12"/>
@@ -3459,13 +3477,13 @@
         <v>166</v>
       </c>
       <c r="B161" s="14">
-        <v>11.6072</v>
+        <v>12.213</v>
       </c>
       <c r="C161" s="15">
-        <v>1.37</v>
+        <v>1.1</v>
       </c>
       <c r="D161" s="16">
-        <v>30364</v>
+        <v>41927</v>
       </c>
       <c r="E161" s="12"/>
       <c r="F161" s="12"/>
@@ -3475,13 +3493,13 @@
         <v>167</v>
       </c>
       <c r="B162" s="14">
-        <v>11.4507</v>
+        <v>12.0798</v>
       </c>
       <c r="C162" s="15">
-        <v>-3.1</v>
+        <v>1.44</v>
       </c>
       <c r="D162" s="16">
-        <v>29698</v>
+        <v>33971</v>
       </c>
       <c r="E162" s="12"/>
       <c r="F162" s="12"/>
@@ -3491,13 +3509,13 @@
         <v>168</v>
       </c>
       <c r="B163" s="14">
-        <v>11.8171</v>
+        <v>11.9086</v>
       </c>
       <c r="C163" s="15">
-        <v>-1.24</v>
+        <v>-1.33</v>
       </c>
       <c r="D163" s="16">
-        <v>29573</v>
+        <v>34869</v>
       </c>
       <c r="E163" s="12"/>
       <c r="F163" s="12"/>
@@ -3507,13 +3525,13 @@
         <v>169</v>
       </c>
       <c r="B164" s="14">
-        <v>11.9654</v>
+        <v>12.0696</v>
       </c>
       <c r="C164" s="15">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="D164" s="16">
-        <v>29794</v>
+        <v>34311</v>
       </c>
       <c r="E164" s="12"/>
       <c r="F164" s="12"/>
@@ -3523,13 +3541,13 @@
         <v>170</v>
       </c>
       <c r="B165" s="14">
-        <v>11.9476</v>
+        <v>11.9499</v>
       </c>
       <c r="C165" s="15">
-        <v>2.92</v>
+        <v>0.04</v>
       </c>
       <c r="D165" s="16">
-        <v>29764</v>
+        <v>33943</v>
       </c>
       <c r="E165" s="12"/>
       <c r="F165" s="12"/>
@@ -3539,13 +3557,13 @@
         <v>171</v>
       </c>
       <c r="B166" s="14">
-        <v>11.6085</v>
+        <v>11.9446</v>
       </c>
       <c r="C166" s="15">
-        <v>4.05</v>
+        <v>2.91</v>
       </c>
       <c r="D166" s="16">
-        <v>27428</v>
+        <v>32678</v>
       </c>
       <c r="E166" s="12"/>
       <c r="F166" s="12"/>
@@ -3555,13 +3573,13 @@
         <v>172</v>
       </c>
       <c r="B167" s="14">
-        <v>11.1565</v>
+        <v>11.6072</v>
       </c>
       <c r="C167" s="15">
-        <v>0.73</v>
+        <v>1.37</v>
       </c>
       <c r="D167" s="16">
-        <v>24246</v>
+        <v>30364</v>
       </c>
       <c r="E167" s="12"/>
       <c r="F167" s="12"/>
@@ -3571,13 +3589,13 @@
         <v>173</v>
       </c>
       <c r="B168" s="14">
-        <v>11.0753</v>
+        <v>11.4507</v>
       </c>
       <c r="C168" s="15">
-        <v>-0.41</v>
+        <v>-3.1</v>
       </c>
       <c r="D168" s="16">
-        <v>23635</v>
+        <v>29698</v>
       </c>
       <c r="E168" s="12"/>
       <c r="F168" s="12"/>
@@ -3587,13 +3605,13 @@
         <v>174</v>
       </c>
       <c r="B169" s="14">
-        <v>11.1213</v>
+        <v>11.8171</v>
       </c>
       <c r="C169" s="15">
-        <v>4.6</v>
+        <v>-1.24</v>
       </c>
       <c r="D169" s="16">
-        <v>23656</v>
+        <v>29573</v>
       </c>
       <c r="E169" s="12"/>
       <c r="F169" s="12"/>
@@ -3603,13 +3621,13 @@
         <v>175</v>
       </c>
       <c r="B170" s="14">
-        <v>10.6322</v>
+        <v>11.9654</v>
       </c>
       <c r="C170" s="15">
-        <v>-3.65</v>
+        <v>0.15</v>
       </c>
       <c r="D170" s="16">
-        <v>23866</v>
+        <v>29794</v>
       </c>
       <c r="E170" s="12"/>
       <c r="F170" s="12"/>
@@ -3619,13 +3637,13 @@
         <v>176</v>
       </c>
       <c r="B171" s="14">
-        <v>11.0353</v>
+        <v>11.9476</v>
       </c>
       <c r="C171" s="15">
-        <v>-8.99</v>
+        <v>2.92</v>
       </c>
       <c r="D171" s="16">
-        <v>22953</v>
+        <v>29764</v>
       </c>
       <c r="E171" s="12"/>
       <c r="F171" s="12"/>
@@ -3635,13 +3653,13 @@
         <v>177</v>
       </c>
       <c r="B172" s="14">
-        <v>12.125</v>
+        <v>11.6085</v>
       </c>
       <c r="C172" s="15">
-        <v>-0.69</v>
+        <v>4.05</v>
       </c>
       <c r="D172" s="16">
-        <v>22936</v>
+        <v>27428</v>
       </c>
       <c r="E172" s="12"/>
       <c r="F172" s="12"/>
@@ -3651,13 +3669,13 @@
         <v>178</v>
       </c>
       <c r="B173" s="14">
-        <v>12.2095</v>
+        <v>11.1565</v>
       </c>
       <c r="C173" s="15">
-        <v>-1.7</v>
+        <v>0.73</v>
       </c>
       <c r="D173" s="16">
-        <v>20986</v>
+        <v>24246</v>
       </c>
       <c r="E173" s="12"/>
       <c r="F173" s="12"/>
@@ -3667,13 +3685,13 @@
         <v>179</v>
       </c>
       <c r="B174" s="14">
-        <v>12.4202</v>
+        <v>11.0753</v>
       </c>
       <c r="C174" s="15">
-        <v>0.04</v>
+        <v>-0.41</v>
       </c>
       <c r="D174" s="16">
-        <v>9884</v>
+        <v>23635</v>
       </c>
       <c r="E174" s="12"/>
       <c r="F174" s="12"/>
@@ -3683,13 +3701,13 @@
         <v>180</v>
       </c>
       <c r="B175" s="14">
-        <v>12.415</v>
+        <v>11.1213</v>
       </c>
       <c r="C175" s="15">
-        <v>0.45</v>
+        <v>4.6</v>
       </c>
       <c r="D175" s="16">
-        <v>7791</v>
+        <v>23656</v>
       </c>
       <c r="E175" s="12"/>
       <c r="F175" s="12"/>
@@ -3699,13 +3717,13 @@
         <v>181</v>
       </c>
       <c r="B176" s="14">
-        <v>12.3596</v>
+        <v>10.6322</v>
       </c>
       <c r="C176" s="15">
-        <v>-2.33</v>
+        <v>-3.65</v>
       </c>
       <c r="D176" s="16">
-        <v>7386</v>
+        <v>23866</v>
       </c>
       <c r="E176" s="12"/>
       <c r="F176" s="12"/>
@@ -3715,13 +3733,13 @@
         <v>182</v>
       </c>
       <c r="B177" s="14">
-        <v>12.6548</v>
+        <v>11.0353</v>
       </c>
       <c r="C177" s="15">
-        <v>1.46</v>
+        <v>-8.99</v>
       </c>
       <c r="D177" s="16">
-        <v>7101</v>
+        <v>22953</v>
       </c>
       <c r="E177" s="12"/>
       <c r="F177" s="12"/>
@@ -3731,13 +3749,13 @@
         <v>183</v>
       </c>
       <c r="B178" s="14">
-        <v>12.4724</v>
+        <v>12.125</v>
       </c>
       <c r="C178" s="15">
-        <v>-0.66</v>
+        <v>-0.69</v>
       </c>
       <c r="D178" s="16">
-        <v>6820</v>
+        <v>22936</v>
       </c>
       <c r="E178" s="12"/>
       <c r="F178" s="12"/>
@@ -3747,13 +3765,13 @@
         <v>184</v>
       </c>
       <c r="B179" s="14">
-        <v>12.5557</v>
+        <v>12.2095</v>
       </c>
       <c r="C179" s="15">
-        <v>4.36</v>
+        <v>-1.7</v>
       </c>
       <c r="D179" s="16">
-        <v>6802</v>
+        <v>20986</v>
       </c>
       <c r="E179" s="12"/>
       <c r="F179" s="12"/>
@@ -3763,13 +3781,13 @@
         <v>185</v>
       </c>
       <c r="B180" s="14">
-        <v>12.0311</v>
+        <v>12.4202</v>
       </c>
       <c r="C180" s="15">
-        <v>2.42</v>
+        <v>0.04</v>
       </c>
       <c r="D180" s="16">
-        <v>4333</v>
+        <v>9884</v>
       </c>
       <c r="E180" s="12"/>
       <c r="F180" s="12"/>
@@ -3779,13 +3797,13 @@
         <v>186</v>
       </c>
       <c r="B181" s="14">
-        <v>11.7472</v>
+        <v>12.415</v>
       </c>
       <c r="C181" s="15">
-        <v>1.8</v>
+        <v>0.45</v>
       </c>
       <c r="D181" s="16">
-        <v>4333</v>
+        <v>7791</v>
       </c>
       <c r="E181" s="12"/>
       <c r="F181" s="12"/>
@@ -3795,13 +3813,13 @@
         <v>187</v>
       </c>
       <c r="B182" s="14">
-        <v>11.54</v>
+        <v>12.3596</v>
       </c>
       <c r="C182" s="15">
-        <v>3.1</v>
+        <v>-2.33</v>
       </c>
       <c r="D182" s="16">
-        <v>4333</v>
+        <v>7386</v>
       </c>
       <c r="E182" s="12"/>
       <c r="F182" s="12"/>
@@ -3811,13 +3829,13 @@
         <v>188</v>
       </c>
       <c r="B183" s="14">
-        <v>11.1935</v>
+        <v>12.6548</v>
       </c>
       <c r="C183" s="15">
-        <v>-1.08</v>
+        <v>1.46</v>
       </c>
       <c r="D183" s="16">
-        <v>4224</v>
+        <v>7101</v>
       </c>
       <c r="E183" s="12"/>
       <c r="F183" s="12"/>
@@ -3827,13 +3845,13 @@
         <v>189</v>
       </c>
       <c r="B184" s="14">
-        <v>11.3151</v>
+        <v>12.4724</v>
       </c>
       <c r="C184" s="15">
-        <v>1.01</v>
+        <v>-0.66</v>
       </c>
       <c r="D184" s="16">
-        <v>3873</v>
+        <v>6820</v>
       </c>
       <c r="E184" s="12"/>
       <c r="F184" s="12"/>
@@ -3843,13 +3861,13 @@
         <v>190</v>
       </c>
       <c r="B185" s="14">
-        <v>11.202</v>
+        <v>12.5557</v>
       </c>
       <c r="C185" s="15">
-        <v>-0.75</v>
+        <v>4.36</v>
       </c>
       <c r="D185" s="16">
-        <v>1827</v>
+        <v>6802</v>
       </c>
       <c r="E185" s="12"/>
       <c r="F185" s="12"/>
@@ -3859,13 +3877,13 @@
         <v>191</v>
       </c>
       <c r="B186" s="14">
-        <v>11.2861</v>
+        <v>12.0311</v>
       </c>
       <c r="C186" s="15">
-        <v>-2.69</v>
+        <v>2.42</v>
       </c>
       <c r="D186" s="16">
-        <v>1693</v>
+        <v>4333</v>
       </c>
       <c r="E186" s="12"/>
       <c r="F186" s="12"/>
@@ -3875,13 +3893,13 @@
         <v>192</v>
       </c>
       <c r="B187" s="14">
-        <v>11.5978</v>
+        <v>11.7472</v>
       </c>
       <c r="C187" s="15">
-        <v>1.25</v>
+        <v>1.8</v>
       </c>
       <c r="D187" s="16">
-        <v>1111</v>
+        <v>4333</v>
       </c>
       <c r="E187" s="12"/>
       <c r="F187" s="12"/>
@@ -3891,13 +3909,13 @@
         <v>193</v>
       </c>
       <c r="B188" s="14">
-        <v>11.4547</v>
+        <v>11.54</v>
       </c>
       <c r="C188" s="15">
-        <v>5.88</v>
+        <v>3.1</v>
       </c>
       <c r="D188" s="16">
-        <v>771</v>
+        <v>4333</v>
       </c>
       <c r="E188" s="12"/>
       <c r="F188" s="12"/>
@@ -3907,13 +3925,13 @@
         <v>194</v>
       </c>
       <c r="B189" s="14">
-        <v>10.8182</v>
+        <v>11.1935</v>
       </c>
       <c r="C189" s="15">
-        <v>1.34</v>
+        <v>-1.08</v>
       </c>
       <c r="D189" s="16">
-        <v>771</v>
+        <v>4224</v>
       </c>
       <c r="E189" s="12"/>
       <c r="F189" s="12"/>
@@ -3923,13 +3941,13 @@
         <v>195</v>
       </c>
       <c r="B190" s="14">
-        <v>10.675</v>
+        <v>11.3151</v>
       </c>
       <c r="C190" s="15">
-        <v>-1.01</v>
+        <v>1.01</v>
       </c>
       <c r="D190" s="16">
-        <v>734</v>
+        <v>3873</v>
       </c>
       <c r="E190" s="12"/>
       <c r="F190" s="12"/>
@@ -3939,13 +3957,13 @@
         <v>196</v>
       </c>
       <c r="B191" s="14">
-        <v>10.7843</v>
+        <v>11.202</v>
       </c>
       <c r="C191" s="15">
-        <v>5.22</v>
+        <v>-0.75</v>
       </c>
       <c r="D191" s="16">
-        <v>734</v>
+        <v>1827</v>
       </c>
       <c r="E191" s="12"/>
       <c r="F191" s="12"/>
@@ -3955,13 +3973,13 @@
         <v>197</v>
       </c>
       <c r="B192" s="14">
-        <v>10.2494</v>
+        <v>11.2861</v>
       </c>
       <c r="C192" s="15">
-        <v>1.42</v>
+        <v>-2.69</v>
       </c>
       <c r="D192" s="16">
-        <v>146</v>
+        <v>1693</v>
       </c>
       <c r="E192" s="12"/>
       <c r="F192" s="12"/>
@@ -3971,13 +3989,13 @@
         <v>198</v>
       </c>
       <c r="B193" s="14">
-        <v>10.106</v>
+        <v>11.5978</v>
       </c>
       <c r="C193" s="15">
-        <v>-2.27</v>
+        <v>1.25</v>
       </c>
       <c r="D193" s="16">
-        <v>146</v>
+        <v>1111</v>
       </c>
       <c r="E193" s="12"/>
       <c r="F193" s="12"/>
@@ -3987,13 +4005,13 @@
         <v>199</v>
       </c>
       <c r="B194" s="14">
-        <v>10.341</v>
+        <v>11.4547</v>
       </c>
       <c r="C194" s="15">
-        <v>3.42</v>
+        <v>5.88</v>
       </c>
       <c r="D194" s="16">
-        <v>146</v>
+        <v>771</v>
       </c>
       <c r="E194" s="12"/>
       <c r="F194" s="12"/>
@@ -4003,13 +4021,13 @@
         <v>200</v>
       </c>
       <c r="B195" s="14">
-        <v>9.999</v>
+        <v>10.8182</v>
       </c>
       <c r="C195" s="15">
-        <v>-0.01</v>
+        <v>1.34</v>
       </c>
       <c r="D195" s="16">
-        <v>146</v>
+        <v>771</v>
       </c>
       <c r="E195" s="12"/>
       <c r="F195" s="12"/>
@@ -4019,29 +4037,125 @@
         <v>201</v>
       </c>
       <c r="B196" s="14">
-        <v>10</v>
-      </c>
-      <c r="C196" s="17" t="s">
-        <v>202</v>
+        <v>10.675</v>
+      </c>
+      <c r="C196" s="15">
+        <v>-1.01</v>
       </c>
       <c r="D196" s="16">
-        <v>0</v>
+        <v>734</v>
       </c>
       <c r="E196" s="12"/>
       <c r="F196" s="12"/>
     </row>
-    <row r="197" ht="35" customHeight="1">
-      <c r="A197" s="18" t="s">
+    <row r="197" s="12" customFormat="1">
+      <c r="A197" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="B197" s="14">
+        <v>10.7843</v>
+      </c>
+      <c r="C197" s="15">
+        <v>5.22</v>
+      </c>
+      <c r="D197" s="16">
+        <v>734</v>
+      </c>
+      <c r="E197" s="12"/>
+      <c r="F197" s="12"/>
+    </row>
+    <row r="198" s="12" customFormat="1">
+      <c r="A198" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="B197" s="18" t="s">
-        <v>203</v>
-      </c>
-      <c r="C197" s="18" t="s">
-        <v>203</v>
-      </c>
-      <c r="D197" s="18" t="s">
-        <v>203</v>
+      <c r="B198" s="14">
+        <v>10.2494</v>
+      </c>
+      <c r="C198" s="15">
+        <v>1.42</v>
+      </c>
+      <c r="D198" s="16">
+        <v>146</v>
+      </c>
+      <c r="E198" s="12"/>
+      <c r="F198" s="12"/>
+    </row>
+    <row r="199" s="12" customFormat="1">
+      <c r="A199" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="B199" s="14">
+        <v>10.106</v>
+      </c>
+      <c r="C199" s="15">
+        <v>-2.27</v>
+      </c>
+      <c r="D199" s="16">
+        <v>146</v>
+      </c>
+      <c r="E199" s="12"/>
+      <c r="F199" s="12"/>
+    </row>
+    <row r="200" s="12" customFormat="1">
+      <c r="A200" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="B200" s="14">
+        <v>10.341</v>
+      </c>
+      <c r="C200" s="15">
+        <v>3.42</v>
+      </c>
+      <c r="D200" s="16">
+        <v>146</v>
+      </c>
+      <c r="E200" s="12"/>
+      <c r="F200" s="12"/>
+    </row>
+    <row r="201" s="12" customFormat="1">
+      <c r="A201" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="B201" s="14">
+        <v>9.999</v>
+      </c>
+      <c r="C201" s="15">
+        <v>-0.01</v>
+      </c>
+      <c r="D201" s="16">
+        <v>146</v>
+      </c>
+      <c r="E201" s="12"/>
+      <c r="F201" s="12"/>
+    </row>
+    <row r="202" s="12" customFormat="1">
+      <c r="A202" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="B202" s="14">
+        <v>10</v>
+      </c>
+      <c r="C202" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="D202" s="16">
+        <v>0</v>
+      </c>
+      <c r="E202" s="12"/>
+      <c r="F202" s="12"/>
+    </row>
+    <row r="203" ht="35" customHeight="1">
+      <c r="A203" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="B203" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="C203" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="D203" s="18" t="s">
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -4057,18 +4171,18 @@
     <mergeCell ref="E4:E4"/>
     <mergeCell ref="E5:E5"/>
     <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A197:D197"/>
+    <mergeCell ref="A203:D203"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A6" location="'Historique Cours'!A197" display="Se rendre en bas du document"/>
-    <hyperlink ref="B6" location="'Historique Cours'!A197" display="Se rendre en bas du document"/>
-    <hyperlink ref="C6" location="'Historique Cours'!A197" display="Se rendre en bas du document"/>
-    <hyperlink ref="D6" location="'Historique Cours'!A197" display="Se rendre en bas du document"/>
-    <hyperlink ref="E6" location="'Historique Cours'!A197" display="Se rendre en bas du document"/>
-    <hyperlink ref="A197" location="'Historique Cours'!A1" display="Se rendre en haut du document"/>
-    <hyperlink ref="B197" location="'Historique Cours'!A1" display="Se rendre en haut du document"/>
-    <hyperlink ref="C197" location="'Historique Cours'!A1" display="Se rendre en haut du document"/>
-    <hyperlink ref="D197" location="'Historique Cours'!A1" display="Se rendre en haut du document"/>
+    <hyperlink ref="A6" location="'Historique Cours'!A203" display="Se rendre en bas du document"/>
+    <hyperlink ref="B6" location="'Historique Cours'!A203" display="Se rendre en bas du document"/>
+    <hyperlink ref="C6" location="'Historique Cours'!A203" display="Se rendre en bas du document"/>
+    <hyperlink ref="D6" location="'Historique Cours'!A203" display="Se rendre en bas du document"/>
+    <hyperlink ref="E6" location="'Historique Cours'!A203" display="Se rendre en bas du document"/>
+    <hyperlink ref="A203" location="'Historique Cours'!A1" display="Se rendre en haut du document"/>
+    <hyperlink ref="B203" location="'Historique Cours'!A1" display="Se rendre en haut du document"/>
+    <hyperlink ref="C203" location="'Historique Cours'!A1" display="Se rendre en haut du document"/>
+    <hyperlink ref="D203" location="'Historique Cours'!A1" display="Se rendre en haut du document"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
